--- a/biology/Zoologie/Hardella_thurjii/Hardella_thurjii.xlsx
+++ b/biology/Zoologie/Hardella_thurjii/Hardella_thurjii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hardella thurjii, unique représentant du genre Hardella, est une espèce de tortues de la famille des Geoemydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hardella thurjii, unique représentant du genre Hardella, est une espèce de tortues de la famille des Geoemydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Bangladesh ;
 en Inde, dans les États d'Assam, de Bihar, de Madhya Pradesh, de Meghalaya, de Penjab, d'Uttar Pradesh et du Bengale-Occidental ;
 au Népal ;
@@ -545,7 +559,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gray, 1831 : Synopsis Reptilium or short descriptions of the species of reptiles. Part I: Cataphracta, tortoises, crocodiles, and enaliosaurians. Treuttel, Wurz &amp; Co., London, p. 1-85 (texte intégral).
 Gray, 1870 : Supplement to the Catalogue of Shield Reptiles in the Collection of the British Museum. Part 1, Testudinata (Tortoises). London, Taylor and Francis, p. 1-120.</t>
